--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_6_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_6_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9030.591998064692</v>
+        <v>1797087.807614872</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9030.591998064692</v>
+        <v>1797087.807614872</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28374.41269465204</v>
+        <v>1702464.761679122</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28374.41269465204</v>
+        <v>1702464.761679122</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341868513.396148</v>
+        <v>53007293.59755688</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11775.70307004189</v>
+        <v>1188477.84157728</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23039.80558133276</v>
+        <v>2290432.751868299</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34303.90809262358</v>
+        <v>3392387.662159321</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46789.8835587561</v>
+        <v>4428135.609496155</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59275.85902488857</v>
+        <v>5463883.556832988</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71761.83449102104</v>
+        <v>6499631.504169818</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84776.74463132587</v>
+        <v>7550783.061286202</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>97714.24969736164</v>
+        <v>8586531.00862303</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>110651.7547633974</v>
+        <v>9622278.955959857</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>123589.2598294332</v>
+        <v>10658026.90329668</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>135434.2978358379</v>
+        <v>11759981.8135877</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147279.3358422426</v>
+        <v>12861936.72387873</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>159124.3738486473</v>
+        <v>13963891.63416976</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>172061.8789146831</v>
+        <v>14999639.5815066</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>184470.4493065465</v>
+        <v>16019983.91906388</v>
       </c>
     </row>
   </sheetData>
